--- a/Systems_C_CPP_Linux_Nov17_Group3_Sprint2/sprint2/PLAN/Schedule_Plan_Group3.xlsx
+++ b/Systems_C_CPP_Linux_Nov17_Group3_Sprint2/sprint2/PLAN/Schedule_Plan_Group3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omalla\OneDrive - Capgemini\Documents\sprint2\PLAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/om-sri-amrutha-varshini_alla_capgemini_com/Documents/Documents/sprint2/PLAN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{D14A2283-FD09-4BDC-BA41-0B0724F99878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECE33698-06D8-4AD7-BF02-6F7911E8A4D7}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{D14A2283-FD09-4BDC-BA41-0B0724F99878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E9E53C-06A7-4566-90F0-E83A0877C055}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5E22CB5B-571F-4715-826C-A0DEE452EDE7}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,13 +572,17 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C8" s="2">
-        <v>44945</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>44946</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44946</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44946</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
